--- a/effiko.xlsx
+++ b/effiko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\effiko-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3809BE17-3B3E-4DDD-820E-52349FCE2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCCFECC-D394-40C7-98D1-20B78DBD9299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12645" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Figma Queries" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>User</t>
   </si>
@@ -128,9 +128,6 @@
     <t>CareerAdvisors</t>
   </si>
   <si>
-    <t>about</t>
-  </si>
-  <si>
     <t>ContactUs</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>createdAt as date</t>
+  </si>
+  <si>
+    <t>phone_no</t>
+  </si>
+  <si>
+    <t>linkedin_url</t>
   </si>
 </sst>
 </file>
@@ -294,7 +297,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,12 +314,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$]dd/mmm/yy;@" x16r2:formatCode16="[$-en-PK,1]dd/mmm/yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -337,14 +348,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$]dd/mmm/yy;@" x16r2:formatCode16="[$-en-PK,1]dd/mmm/yy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,8 +373,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F59570DF-D901-4A01-87C9-E40F604C6CC2}" name="Table1" displayName="Table1" ref="A1:D25" totalsRowShown="0">
   <autoFilter ref="A1:D25" xr:uid="{F59570DF-D901-4A01-87C9-E40F604C6CC2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5009B7BE-FA3E-42D1-A3A7-ADFDBE142F67}" name="Day" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{840CBA56-9D8F-4DAC-8324-B50671BAC3EA}" name="Date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5009B7BE-FA3E-42D1-A3A7-ADFDBE142F67}" name="Day" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{840CBA56-9D8F-4DAC-8324-B50671BAC3EA}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{92688EF5-C27C-455B-BB57-170276A463AF}" name="Task Completed"/>
     <tableColumn id="3" xr3:uid="{E7D883C0-BDB9-40F9-863F-399D7734E280}" name="Remarks"/>
   </tableColumns>
@@ -678,18 +681,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC103FC8-C95E-4CF1-9B65-D60B0A1C9F20}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17" style="11" customWidth="1"/>
-    <col min="4" max="4" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
@@ -700,61 +703,61 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -770,29 +773,29 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -802,43 +805,49 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
+      <c r="F4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -847,45 +856,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>55</v>
+      <c r="A11" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>58</v>
+      <c r="A12" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>54</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>51</v>
+      <c r="A20" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,37 +904,37 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +953,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="72.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.140625" customWidth="1"/>
@@ -953,7 +962,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -967,7 +976,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Fri</v>
       </c>
@@ -979,7 +988,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sat</v>
       </c>
@@ -990,20 +999,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>44724</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
+      <c r="A5" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Mon</v>
       </c>
@@ -1015,7 +1024,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
+      <c r="A6" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Tue</v>
       </c>
@@ -1027,7 +1036,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
+      <c r="A7" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Wed</v>
       </c>
@@ -1039,7 +1048,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
+      <c r="A8" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Thu</v>
       </c>
@@ -1051,7 +1060,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
+      <c r="A9" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Fri</v>
       </c>
@@ -1063,7 +1072,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
+      <c r="A10" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sat</v>
       </c>
@@ -1071,18 +1080,18 @@
         <v>44730</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="str">
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>44731</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Mon</v>
       </c>
@@ -1091,7 +1100,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
+      <c r="A13" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Tue</v>
       </c>
@@ -1100,7 +1109,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
+      <c r="A14" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Wed</v>
       </c>
@@ -1109,7 +1118,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Thu</v>
       </c>
@@ -1118,7 +1127,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
+      <c r="A16" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Fri</v>
       </c>
@@ -1127,7 +1136,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
+      <c r="A17" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sat</v>
       </c>
@@ -1135,18 +1144,18 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="str">
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>44738</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
+      <c r="A19" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Mon</v>
       </c>
@@ -1155,7 +1164,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
+      <c r="A20" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Tue</v>
       </c>
@@ -1164,7 +1173,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
+      <c r="A21" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Wed</v>
       </c>
@@ -1173,7 +1182,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str">
+      <c r="A22" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Thu</v>
       </c>
@@ -1182,7 +1191,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="str">
+      <c r="A23" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Fri</v>
       </c>
@@ -1191,7 +1200,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
+      <c r="A24" s="3" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sat</v>
       </c>
@@ -1199,22 +1208,22 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="str">
+    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>44745</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9 A2 A11:A16 A18:A23 A25">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sun">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sun">
       <formula>NOT(ISERROR(SEARCH("Sun",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Sat">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Sat">
       <formula>NOT(ISERROR(SEARCH("Sat",A2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/effiko.xlsx
+++ b/effiko.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\effiko-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\effiko-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCCFECC-D394-40C7-98D1-20B78DBD9299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC351C62-6998-4482-960E-613B33F5E642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Figma Queries" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>User</t>
   </si>
@@ -131,9 +131,6 @@
     <t>ContactUs</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>Locations</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>linkedIn-data</t>
   </si>
   <si>
-    <t>linkedin-email</t>
-  </si>
-  <si>
     <t>cv (pdf)</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>Interviews</t>
   </si>
   <si>
-    <t>link (youtube)</t>
-  </si>
-  <si>
     <t>User Register &amp; Login Pages ?</t>
   </si>
   <si>
@@ -219,6 +210,18 @@
   </si>
   <si>
     <t>linkedin_url</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>linkedin_email</t>
+  </si>
+  <si>
+    <t>book (pdf)</t>
   </si>
 </sst>
 </file>
@@ -681,9 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC103FC8-C95E-4CF1-9B65-D60B0A1C9F20}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -693,10 +694,11 @@
     <col min="4" max="4" width="21" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="16" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -710,7 +712,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>23</v>
@@ -718,20 +720,20 @@
       <c r="F1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
+      <c r="H1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -745,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>24</v>
@@ -753,19 +755,19 @@
       <c r="F2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="G2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -777,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>28</v>
@@ -788,16 +790,16 @@
       <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -818,17 +820,17 @@
       <c r="F4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="G4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
-        <v>56</v>
+      <c r="K4" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -836,18 +838,21 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -857,44 +862,44 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -904,37 +909,37 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/effiko.xlsx
+++ b/effiko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\effiko-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCCFECC-D394-40C7-98D1-20B78DBD9299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15F2400-DFCA-477E-818A-0757B0ED9E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>User</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>linkedin_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>pdf_file</t>
   </si>
 </sst>
 </file>
@@ -681,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC103FC8-C95E-4CF1-9B65-D60B0A1C9F20}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,6 +847,9 @@
       <c r="F5" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -848,6 +857,9 @@
       </c>
       <c r="F6" s="10" t="s">
         <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">

--- a/effiko.xlsx
+++ b/effiko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\effiko-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15F2400-DFCA-477E-818A-0757B0ED9E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CFA35F-8FED-4CA2-9052-8176A063D00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
@@ -688,7 +688,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/effiko.xlsx
+++ b/effiko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\effiko-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CFA35F-8FED-4CA2-9052-8176A063D00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D101F6A0-1345-4C07-878A-6FF84ED68D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12645" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Figma Queries" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>User</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Courses</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>Category (Article)</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>LinkedIn Data</t>
   </si>
   <si>
-    <t>Articles (CKEDITOR)</t>
-  </si>
-  <si>
     <t>Advisors register from ?</t>
   </si>
   <si>
@@ -225,6 +219,24 @@
   </si>
   <si>
     <t>pdf_file</t>
+  </si>
+  <si>
+    <t>Articles</t>
+  </si>
+  <si>
+    <t>mshahzad</t>
+  </si>
+  <si>
+    <t>sub-domain:</t>
+  </si>
+  <si>
+    <t>effiko-api.janisk.com</t>
+  </si>
+  <si>
+    <t>FTP Account</t>
+  </si>
+  <si>
+    <t>o{7=@{2unM;w</t>
   </si>
 </sst>
 </file>
@@ -234,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dd/mmm/yy;@" x16r2:formatCode16="[$-en-PK,1]dd/mmm/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +266,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -321,6 +341,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -685,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC103FC8-C95E-4CF1-9B65-D60B0A1C9F20}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +738,7 @@
         <v>27</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>23</v>
@@ -737,7 +759,7 @@
         <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -783,7 +805,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>28</v>
@@ -834,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -842,13 +864,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -856,10 +878,10 @@
         <v>38</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -869,84 +891,103 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
